--- a/datas.xlsx
+++ b/datas.xlsx
@@ -98,7 +98,7 @@
     <t>犯罪,剧情</t>
   </si>
   <si>
-    <t>1994-10-14(美国)</t>
+    <t>1994-10-14</t>
   </si>
   <si>
     <t>肖申克的救赎</t>
@@ -125,7 +125,7 @@
     <t>喜剧,剧情,爱情</t>
   </si>
   <si>
-    <t>1953-09-02(美国)</t>
+    <t>1953-09-02</t>
   </si>
   <si>
     <t>罗马假日</t>
@@ -152,7 +152,7 @@
     <t>剧情,惊悚,犯罪</t>
   </si>
   <si>
-    <t>1994-09-14(法国)</t>
+    <t>1994-09-14</t>
   </si>
   <si>
     <t>这个杀手不太冷</t>
@@ -179,7 +179,7 @@
     <t>犯罪,剧情,惊悚</t>
   </si>
   <si>
-    <t>1972-03-24(美国)</t>
+    <t>1972-03-24</t>
   </si>
   <si>
     <t>教父</t>
@@ -233,7 +233,7 @@
     <t>喜剧,爱情,古装</t>
   </si>
   <si>
-    <t>1993-07-01(中国香港)</t>
+    <t>1993-07-01</t>
   </si>
   <si>
     <t>唐伯虎点秋香</t>
@@ -260,7 +260,7 @@
     <t>动画,奇幻,冒险</t>
   </si>
   <si>
-    <t>2001-07-20(日本)</t>
+    <t>2001-07-20</t>
   </si>
   <si>
     <t>千与千寻</t>
@@ -284,7 +284,7 @@
     <t>剧情,战争,爱情</t>
   </si>
   <si>
-    <t>1940-05-17(美国)</t>
+    <t>1940-05-17</t>
   </si>
   <si>
     <t>魂断蓝桥</t>
@@ -308,7 +308,7 @@
     <t>剧情,爱情,战争</t>
   </si>
   <si>
-    <t>1939-12-15(美国)</t>
+    <t>1939-12-15</t>
   </si>
   <si>
     <t>乱世佳人</t>
@@ -350,7 +350,7 @@
     <t>85分钟</t>
   </si>
   <si>
-    <t>1999-02-13(中国香港)</t>
+    <t>1999-02-13</t>
   </si>
   <si>
     <t>喜剧之王</t>
@@ -374,7 +374,7 @@
     <t>剧情,历史,战争</t>
   </si>
   <si>
-    <t>1993-12-15(美国)</t>
+    <t>1993-12-15</t>
   </si>
   <si>
     <t>辛德勒的名单</t>
@@ -428,7 +428,7 @@
     <t>爱情,歌舞,家庭</t>
   </si>
   <si>
-    <t>1965-03-02(美国)</t>
+    <t>1965-03-02</t>
   </si>
   <si>
     <t>音乐之声</t>
@@ -455,7 +455,7 @@
     <t>爱情,奇幻,剧情</t>
   </si>
   <si>
-    <t>1990-12-06(美国)</t>
+    <t>1990-12-06</t>
   </si>
   <si>
     <t>剪刀手爱德华</t>
@@ -482,7 +482,7 @@
     <t>剧情,爱情</t>
   </si>
   <si>
-    <t>1997-05-30(中国香港)</t>
+    <t>1997-05-30</t>
   </si>
   <si>
     <t>春光乍泄</t>
@@ -509,7 +509,7 @@
     <t>战争,剧情,爱情</t>
   </si>
   <si>
-    <t>1997-12-20(意大利)</t>
+    <t>1997-12-20</t>
   </si>
   <si>
     <t>美丽人生</t>
@@ -533,7 +533,7 @@
     <t>剧情,爱情,音乐</t>
   </si>
   <si>
-    <t>1998-10-28(意大利)</t>
+    <t>1998-10-28</t>
   </si>
   <si>
     <t>海上钢琴师</t>
@@ -686,7 +686,7 @@
     <t>剧情,喜剧,科幻</t>
   </si>
   <si>
-    <t>1998-06-01(美国)</t>
+    <t>1998-06-01</t>
   </si>
   <si>
     <t>楚门的世界</t>
@@ -707,7 +707,7 @@
     <t>动作,科幻,惊悚</t>
   </si>
   <si>
-    <t>2008-07-18(美国)</t>
+    <t>2008-07-18</t>
   </si>
   <si>
     <t>蝙蝠侠：黑暗骑士</t>
@@ -731,7 +731,7 @@
     <t>喜剧,古装,武侠</t>
   </si>
   <si>
-    <t>1993-02-05(中国香港)</t>
+    <t>1993-02-05</t>
   </si>
   <si>
     <t>射雕英雄传之东成西就</t>
@@ -752,7 +752,7 @@
     <t>202分钟</t>
   </si>
   <si>
-    <t>1974-12-12(美国)</t>
+    <t>1974-12-12</t>
   </si>
   <si>
     <t>教父2</t>
@@ -794,7 +794,7 @@
     <t>喜剧,科幻,动画</t>
   </si>
   <si>
-    <t>2008-06-27(美国)</t>
+    <t>2008-06-27</t>
   </si>
   <si>
     <t>机器人总动员</t>
@@ -821,7 +821,7 @@
     <t>剧情</t>
   </si>
   <si>
-    <t>1988-11-17(意大利)</t>
+    <t>1988-11-17</t>
   </si>
   <si>
     <t>天堂电影院</t>
@@ -842,7 +842,7 @@
     <t>剧情,家庭</t>
   </si>
   <si>
-    <t>1994-05-18(法国)</t>
+    <t>1994-05-18</t>
   </si>
   <si>
     <t>活着</t>
@@ -866,7 +866,7 @@
     <t>动作,历史,战争</t>
   </si>
   <si>
-    <t>1998-07-24(美国)</t>
+    <t>1998-07-24</t>
   </si>
   <si>
     <t>拯救大兵瑞恩</t>
@@ -887,7 +887,7 @@
     <t>119分钟</t>
   </si>
   <si>
-    <t>2004-11-20(日本)</t>
+    <t>2004-11-20</t>
   </si>
   <si>
     <t>哈尔的移动城堡</t>
@@ -932,7 +932,7 @@
     <t>93分钟</t>
   </si>
   <si>
-    <t>2010-03-12(英国)</t>
+    <t>2010-03-12</t>
   </si>
   <si>
     <t>忠犬八公的故事</t>
@@ -953,7 +953,7 @@
     <t>134分钟</t>
   </si>
   <si>
-    <t>1997-07-12(日本)</t>
+    <t>1997-07-12</t>
   </si>
   <si>
     <t>幽灵公主</t>
@@ -980,7 +980,7 @@
     <t>动作,悬疑,剧情</t>
   </si>
   <si>
-    <t>1999-10-15(美国)</t>
+    <t>1999-10-15</t>
   </si>
   <si>
     <t>搏击俱乐部</t>
@@ -1097,7 +1097,7 @@
     <t>动作,剧情,惊悚</t>
   </si>
   <si>
-    <t>2006-03-17(美国)</t>
+    <t>2006-03-17</t>
   </si>
   <si>
     <t>V字仇杀队</t>
@@ -1142,7 +1142,7 @@
     <t>https://p0.meituan.net/movie/df15efd261060d3094a73ef679888d4f238149.jpg@160w_220h_1e_1c</t>
   </si>
   <si>
-    <t>1957-04-13(美国)</t>
+    <t>1957-04-13</t>
   </si>
   <si>
     <t>十二怒汉</t>
@@ -1214,7 +1214,7 @@
     <t>动作,传记,历史</t>
   </si>
   <si>
-    <t>1995-05-24(美国)</t>
+    <t>1995-05-24</t>
   </si>
   <si>
     <t>勇敢的心</t>
@@ -1331,7 +1331,7 @@
     <t>95分钟</t>
   </si>
   <si>
-    <t>2010-07-09(美国)</t>
+    <t>2010-07-09</t>
   </si>
   <si>
     <t>神偷奶爸</t>
@@ -1370,7 +1370,7 @@
     <t>157分钟</t>
   </si>
   <si>
-    <t>1992-12-23(美国)</t>
+    <t>1992-12-23</t>
   </si>
   <si>
     <t>闻香识女人</t>
@@ -1421,7 +1421,7 @@
     <t>喜剧,爱情,剧情</t>
   </si>
   <si>
-    <t>2010-08-06(美国)</t>
+    <t>2010-08-06</t>
   </si>
   <si>
     <t>怦然心动</t>
@@ -1442,7 +1442,7 @@
     <t>133分钟</t>
   </si>
   <si>
-    <t>1975-11-19(美国)</t>
+    <t>1975-11-19</t>
   </si>
   <si>
     <t>飞越疯人院</t>
@@ -1466,7 +1466,7 @@
     <t>剧情,爱情,家庭</t>
   </si>
   <si>
-    <t>2006-01-13(美国)</t>
+    <t>2006-01-13</t>
   </si>
   <si>
     <t>断背山</t>
@@ -1490,7 +1490,7 @@
     <t>229分钟</t>
   </si>
   <si>
-    <t>1984-02-17(美国)</t>
+    <t>1984-02-17</t>
   </si>
   <si>
     <t>美国往事</t>
@@ -1514,7 +1514,7 @@
     <t>奇幻,悬疑,惊悚</t>
   </si>
   <si>
-    <t>2006-10-20(美国)</t>
+    <t>2006-10-20</t>
   </si>
   <si>
     <t>致命魔术</t>
@@ -1535,7 +1535,7 @@
     <t>剧情,战争</t>
   </si>
   <si>
-    <t>2000-05-12(法国戛纳)</t>
+    <t>2000-05-12</t>
   </si>
   <si>
     <t>鬼子来了</t>
@@ -1577,7 +1577,7 @@
     <t>传记,剧情</t>
   </si>
   <si>
-    <t>2001-12-21(美国)</t>
+    <t>2001-12-21</t>
   </si>
   <si>
     <t>美丽心灵</t>
@@ -1619,7 +1619,7 @@
     <t>爱情,恐怖</t>
   </si>
   <si>
-    <t>1994-11-11(美国)</t>
+    <t>1994-11-11</t>
   </si>
   <si>
     <t>夜访吸血鬼</t>
@@ -1688,7 +1688,7 @@
     <t>传记,剧情,战争</t>
   </si>
   <si>
-    <t>2002-09-25(法国)</t>
+    <t>2002-09-25</t>
   </si>
   <si>
     <t>钢琴家</t>
@@ -1712,7 +1712,7 @@
     <t>爱情,悬疑,奇幻</t>
   </si>
   <si>
-    <t>2008-12-25(美国)</t>
+    <t>2008-12-25</t>
   </si>
   <si>
     <t>本杰明·巴顿奇事</t>
@@ -1736,7 +1736,7 @@
     <t>传记,喜剧,剧情</t>
   </si>
   <si>
-    <t>2011-11-02(法国)</t>
+    <t>2011-11-02</t>
   </si>
   <si>
     <t>触不可及</t>
@@ -1757,7 +1757,7 @@
     <t>https://p1.meituan.net/movie/4ad513be2e9419ec7d7d63ba8cc2b6cc134065.jpg@160w_220h_1e_1c</t>
   </si>
   <si>
-    <t>2011-09-22(韩国)</t>
+    <t>2011-09-22</t>
   </si>
   <si>
     <t>熔炉</t>
@@ -1859,7 +1859,7 @@
     <t>https://p0.meituan.net/movie/4cc4c55c29b77b090485ce9943bf6f87274708.jpg@160w_220h_1e_1c</t>
   </si>
   <si>
-    <t>2013-10-02(韩国)</t>
+    <t>2013-10-02</t>
   </si>
   <si>
     <t>素媛</t>
@@ -1883,7 +1883,7 @@
     <t>89分钟</t>
   </si>
   <si>
-    <t>1999-01-22(美国)</t>
+    <t>1999-01-22</t>
   </si>
   <si>
     <t>小鞋子</t>
@@ -1907,7 +1907,7 @@
     <t>动画,奇幻,剧情</t>
   </si>
   <si>
-    <t>2011-09-17(日本)</t>
+    <t>2011-09-17</t>
   </si>
   <si>
     <t>萤火之森</t>
@@ -1931,7 +1931,7 @@
     <t>爱情,剧情,科幻</t>
   </si>
   <si>
-    <t>2013-09-04(英国)</t>
+    <t>2013-09-04</t>
   </si>
   <si>
     <t>时空恋旅人</t>
@@ -1952,7 +1952,7 @@
     <t>94分钟</t>
   </si>
   <si>
-    <t>2008-09-12(英国)</t>
+    <t>2008-09-12</t>
   </si>
   <si>
     <t>穿条纹睡衣的男孩</t>
@@ -1979,7 +1979,7 @@
     <t>剧情,悬疑</t>
   </si>
   <si>
-    <t>2006-03-23(德国)</t>
+    <t>2006-03-23</t>
   </si>
   <si>
     <t>窃听风暴</t>
@@ -1997,7 +1997,7 @@
     <t>https://p0.meituan.net/movie/ce262f261f69fc3d679020402336a4af270365.jpg@160w_220h_1e_1c</t>
   </si>
   <si>
-    <t>2010-07-17(日本)</t>
+    <t>2010-07-17</t>
   </si>
   <si>
     <t>借东西的小人阿莉埃蒂</t>
@@ -2018,7 +2018,7 @@
     <t>动作,悬疑,犯罪</t>
   </si>
   <si>
-    <t>2013-07-31(韩国)</t>
+    <t>2013-07-31</t>
   </si>
   <si>
     <t>恐怖直播</t>
@@ -2039,7 +2039,7 @@
     <t>剧情,喜剧,家庭</t>
   </si>
   <si>
-    <t>2013-01-23(韩国)</t>
+    <t>2013-01-23</t>
   </si>
   <si>
     <t>7号房的礼物</t>
@@ -2063,7 +2063,7 @@
     <t>纪录片</t>
   </si>
   <si>
-    <t>2009-07-31(美国)</t>
+    <t>2009-07-31</t>
   </si>
   <si>
     <t>海豚湾</t>
@@ -2084,7 +2084,7 @@
     <t>107分钟</t>
   </si>
   <si>
-    <t>1987-08-01(日本)</t>
+    <t>1987-08-01</t>
   </si>
   <si>
     <t>忠犬八公物语</t>
@@ -2105,7 +2105,7 @@
     <t>https://p1.meituan.net/movie/b553d13f30100db731ab6cf45668e52d94703.jpg@160w_220h_1e_1c</t>
   </si>
   <si>
-    <t>2002-08-30(巴西)</t>
+    <t>2002-08-30</t>
   </si>
   <si>
     <t>上帝之城</t>
@@ -2123,7 +2123,7 @@
     <t>https://p0.meituan.net/movie/8fabf3894b7d12d3d2f6e66404813670265761.jpg@160w_220h_1e_1c</t>
   </si>
   <si>
-    <t>2013-12-18(韩国)</t>
+    <t>2013-12-18</t>
   </si>
   <si>
     <t>辩护人</t>
@@ -2147,7 +2147,7 @@
     <t>动作,冒险,剧情</t>
   </si>
   <si>
-    <t>1954-04-26(日本)</t>
+    <t>1954-04-26</t>
   </si>
   <si>
     <t>七武士</t>
@@ -2195,7 +2195,7 @@
     <t>爱情,家庭,剧情</t>
   </si>
   <si>
-    <t>2000-09-20(法国)</t>
+    <t>2000-09-20</t>
   </si>
   <si>
     <t>一一</t>
@@ -2216,7 +2216,7 @@
     <t>138分钟</t>
   </si>
   <si>
-    <t>1993-11-24(美国)</t>
+    <t>1993-11-24</t>
   </si>
   <si>
     <t>完美的世界</t>
@@ -2261,7 +2261,7 @@
     <t>80分钟</t>
   </si>
   <si>
-    <t>2002-04-05(韩国)</t>
+    <t>2002-04-05</t>
   </si>
   <si>
     <t>爱·回家</t>
@@ -2288,7 +2288,7 @@
     <t>冒险,西部</t>
   </si>
   <si>
-    <t>1966-12-23(意大利)</t>
+    <t>1966-12-23</t>
   </si>
   <si>
     <t>黄金三镖客</t>
@@ -2306,7 +2306,7 @@
     <t>https://p1.meituan.net/movie/ed50b58bf636d207c56989872a91f4cf305138.jpg@160w_220h_1e_1c</t>
   </si>
   <si>
-    <t>2011-02-17(韩国)</t>
+    <t>2011-02-17</t>
   </si>
   <si>
     <t>我爱你</t>
@@ -2327,7 +2327,7 @@
     <t>https://p1.meituan.net/movie/a1634f4e49c8517ae0a3e4adcac6b0dc43994.jpg@160w_220h_1e_1c</t>
   </si>
   <si>
-    <t>2001-12-12(法国)</t>
+    <t>2001-12-12</t>
   </si>
   <si>
     <t>迁徙的鸟</t>
